--- a/Ace/Document/仕様.xlsx
+++ b/Ace/Document/仕様.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="クラスリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="処理リスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>クラス</t>
   </si>
@@ -156,6 +157,54 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ResultActivity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15パズルがそろったら表示する画面</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatisticsActivity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムや手数などの統計を表示する画面</t>
+    <rPh sb="4" eb="6">
+      <t>テスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBHelper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DBに接続するためのクラス</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -219,6 +268,2672 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/default" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B20542F-93A1-4E57-A0EF-24003C751BC7}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10DA7C0E-14F2-4DAF-B5C4-ECDE9DB0A8B2}" type="parTrans" cxnId="{92CDE9FD-55F0-4C26-8864-AA5D0F741BED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FBF2365A-8F2B-4077-BDFD-356AE86F0B2E}" type="sibTrans" cxnId="{92CDE9FD-55F0-4C26-8864-AA5D0F741BED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C4BC1FF-881A-4F7D-BF25-A7D6CDBAA8DA}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>パズル</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{995944E9-6CAC-4AA9-900E-185F06167AF2}" type="parTrans" cxnId="{40684457-C0C0-4793-ADB0-13F3EEAB0856}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D8F7729-A962-4348-83E7-84C5BEBFFB29}" type="sibTrans" cxnId="{40684457-C0C0-4793-ADB0-13F3EEAB0856}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9AFB0E29-18A6-401A-8D54-C0BF68E29340}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{929F3023-2F1C-4E31-80DB-F072F5E10E8E}" type="parTrans" cxnId="{9A254761-AB73-479A-BB8E-E51FDBB8A8D2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4844FAE6-3E1F-47E8-BAFE-7CE59088B316}" type="sibTrans" cxnId="{9A254761-AB73-479A-BB8E-E51FDBB8A8D2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6598F36D-DA06-4A46-9A5E-E4414A8F75E9}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{70DCFB8F-B084-4451-84A7-6551C843C1AD}" type="parTrans" cxnId="{CB4510B6-8962-4CF5-A47E-7A50C36F14D4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BCB7764A-2B10-4709-B1BC-E835B6821EA0}" type="sibTrans" cxnId="{CB4510B6-8962-4CF5-A47E-7A50C36F14D4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AEE277DC-C156-4759-A82F-0CEC06CF7DDF}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>統計</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5AD5A5C7-614F-45E5-A536-400FA2C953F6}" type="parTrans" cxnId="{0C054192-8A79-449C-A2E0-928FDDB9F9E5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0EEDDB37-773D-4953-851A-7DCD1C011703}" type="sibTrans" cxnId="{0C054192-8A79-449C-A2E0-928FDDB9F9E5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB554F46-0F00-493C-9434-516A6EA11395}" type="pres">
+      <dgm:prSet presAssocID="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E11E8025-E0AF-4086-AA7D-EADB8254D70C}" type="pres">
+      <dgm:prSet presAssocID="{5B20542F-93A1-4E57-A0EF-24003C751BC7}" presName="node" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B22CC35-9643-48AA-A9E6-9E0247853BB5}" type="pres">
+      <dgm:prSet presAssocID="{FBF2365A-8F2B-4077-BDFD-356AE86F0B2E}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4A505A86-4DD7-40B4-B9DE-BAAEA24A59C4}" type="pres">
+      <dgm:prSet presAssocID="{5C4BC1FF-881A-4F7D-BF25-A7D6CDBAA8DA}" presName="node" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE677E85-5A97-40EA-B622-C40E3E6DF7A0}" type="pres">
+      <dgm:prSet presAssocID="{8D8F7729-A962-4348-83E7-84C5BEBFFB29}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E0810434-E944-4E90-A469-0484C8AAA61D}" type="pres">
+      <dgm:prSet presAssocID="{9AFB0E29-18A6-401A-8D54-C0BF68E29340}" presName="node" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{61DA0B33-FDC7-4AB1-90FE-BED592AFEC06}" type="pres">
+      <dgm:prSet presAssocID="{4844FAE6-3E1F-47E8-BAFE-7CE59088B316}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F10F60E-94C9-46B1-BAB7-8F6F306DEFE4}" type="pres">
+      <dgm:prSet presAssocID="{6598F36D-DA06-4A46-9A5E-E4414A8F75E9}" presName="node" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{00246355-C96C-495D-A727-56605B469389}" type="pres">
+      <dgm:prSet presAssocID="{BCB7764A-2B10-4709-B1BC-E835B6821EA0}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E2E80E66-9E2B-4495-9701-56643D92569E}" type="pres">
+      <dgm:prSet presAssocID="{AEE277DC-C156-4759-A82F-0CEC06CF7DDF}" presName="node" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{00B08700-0174-4236-BC74-61BBCB8073F0}" type="presOf" srcId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" destId="{FB554F46-0F00-493C-9434-516A6EA11395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{CB4510B6-8962-4CF5-A47E-7A50C36F14D4}" srcId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" destId="{6598F36D-DA06-4A46-9A5E-E4414A8F75E9}" srcOrd="3" destOrd="0" parTransId="{70DCFB8F-B084-4451-84A7-6551C843C1AD}" sibTransId="{BCB7764A-2B10-4709-B1BC-E835B6821EA0}"/>
+    <dgm:cxn modelId="{5B9A0150-B52B-4835-825B-23153A58B9A2}" type="presOf" srcId="{5C4BC1FF-881A-4F7D-BF25-A7D6CDBAA8DA}" destId="{4A505A86-4DD7-40B4-B9DE-BAAEA24A59C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{22DD0D29-5A23-48A9-AD95-66F0ECBF1426}" type="presOf" srcId="{9AFB0E29-18A6-401A-8D54-C0BF68E29340}" destId="{E0810434-E944-4E90-A469-0484C8AAA61D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{80439F99-9417-4348-9CC4-D5F7B77BD158}" type="presOf" srcId="{AEE277DC-C156-4759-A82F-0CEC06CF7DDF}" destId="{E2E80E66-9E2B-4495-9701-56643D92569E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{0C054192-8A79-449C-A2E0-928FDDB9F9E5}" srcId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" destId="{AEE277DC-C156-4759-A82F-0CEC06CF7DDF}" srcOrd="4" destOrd="0" parTransId="{5AD5A5C7-614F-45E5-A536-400FA2C953F6}" sibTransId="{0EEDDB37-773D-4953-851A-7DCD1C011703}"/>
+    <dgm:cxn modelId="{40684457-C0C0-4793-ADB0-13F3EEAB0856}" srcId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" destId="{5C4BC1FF-881A-4F7D-BF25-A7D6CDBAA8DA}" srcOrd="1" destOrd="0" parTransId="{995944E9-6CAC-4AA9-900E-185F06167AF2}" sibTransId="{8D8F7729-A962-4348-83E7-84C5BEBFFB29}"/>
+    <dgm:cxn modelId="{9A254761-AB73-479A-BB8E-E51FDBB8A8D2}" srcId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" destId="{9AFB0E29-18A6-401A-8D54-C0BF68E29340}" srcOrd="2" destOrd="0" parTransId="{929F3023-2F1C-4E31-80DB-F072F5E10E8E}" sibTransId="{4844FAE6-3E1F-47E8-BAFE-7CE59088B316}"/>
+    <dgm:cxn modelId="{30D52A52-D334-446B-8E8E-344366C37E0B}" type="presOf" srcId="{6598F36D-DA06-4A46-9A5E-E4414A8F75E9}" destId="{8F10F60E-94C9-46B1-BAB7-8F6F306DEFE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{63137907-23AA-479A-A7D9-A76AE00A3C52}" type="presOf" srcId="{5B20542F-93A1-4E57-A0EF-24003C751BC7}" destId="{E11E8025-E0AF-4086-AA7D-EADB8254D70C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{92CDE9FD-55F0-4C26-8864-AA5D0F741BED}" srcId="{16B5AE44-BB02-4DF6-9F17-387D5349FB62}" destId="{5B20542F-93A1-4E57-A0EF-24003C751BC7}" srcOrd="0" destOrd="0" parTransId="{10DA7C0E-14F2-4DAF-B5C4-ECDE9DB0A8B2}" sibTransId="{FBF2365A-8F2B-4077-BDFD-356AE86F0B2E}"/>
+    <dgm:cxn modelId="{B2632FBB-907E-4E7E-92D8-2C536DD8BB09}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{E11E8025-E0AF-4086-AA7D-EADB8254D70C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{89DD63C1-C8E1-44B0-BACD-179F62E5AADF}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{0B22CC35-9643-48AA-A9E6-9E0247853BB5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{7D0D4F41-284A-4523-B511-0CBB94BAB18F}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{4A505A86-4DD7-40B4-B9DE-BAAEA24A59C4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{0088ABB6-9725-4B3E-BC1A-F9C2CB6D9CCE}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{EE677E85-5A97-40EA-B622-C40E3E6DF7A0}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{303EF12A-5880-4E18-BF9B-39B822B95D04}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{E0810434-E944-4E90-A469-0484C8AAA61D}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{E7107199-5570-4CE1-99EA-852BAA84192F}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{61DA0B33-FDC7-4AB1-90FE-BED592AFEC06}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{B1A7B247-94B4-4874-BD7F-1E38A953871B}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{8F10F60E-94C9-46B1-BAB7-8F6F306DEFE4}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{A1343146-00C7-402B-9077-7A3564C5B040}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{00246355-C96C-495D-A727-56605B469389}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{4F40C36E-B5B4-40D3-A0B1-D3D9AF807901}" type="presParOf" srcId="{FB554F46-0F00-493C-9434-516A6EA11395}" destId="{E2E80E66-9E2B-4495-9701-56643D92569E}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{E11E8025-E0AF-4086-AA7D-EADB8254D70C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="442912"/>
+          <a:ext cx="1428749" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="442912"/>
+        <a:ext cx="1428749" cy="857250"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4A505A86-4DD7-40B4-B9DE-BAAEA24A59C4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="442912"/>
+          <a:ext cx="1428749" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>パズル</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1571625" y="442912"/>
+        <a:ext cx="1428749" cy="857250"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E0810434-E944-4E90-A469-0484C8AAA61D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="442912"/>
+          <a:ext cx="1428749" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3143250" y="442912"/>
+        <a:ext cx="1428749" cy="857250"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8F10F60E-94C9-46B1-BAB7-8F6F306DEFE4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="785812" y="1443037"/>
+          <a:ext cx="1428749" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="785812" y="1443037"/>
+        <a:ext cx="1428749" cy="857250"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E2E80E66-9E2B-4495-9701-56643D92569E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2357437" y="1443037"/>
+          <a:ext cx="1428749" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>統計</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2357437" y="1443037"/>
+        <a:ext cx="1428749" cy="857250"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/default">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="400"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="6" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="5" srcOrd="4" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="5"/>
+        <dgm:pt modelId="6"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="7" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="5" srcOrd="4" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="6" srcOrd="5" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="snake">
+          <dgm:param type="grDir" val="tL"/>
+          <dgm:param type="flowDir" val="row"/>
+          <dgm:param type="contDir" val="sameDir"/>
+          <dgm:param type="off" val="ctr"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="snake">
+          <dgm:param type="grDir" val="tR"/>
+          <dgm:param type="flowDir" val="row"/>
+          <dgm:param type="contDir" val="sameDir"/>
+          <dgm:param type="off" val="ctr"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="node" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="node" refType="w" refFor="ch" refForName="node" fact="0.6"/>
+      <dgm:constr type="w" for="ch" forName="sibTrans" refType="w" refFor="ch" refForName="node" fact="0.1"/>
+      <dgm:constr type="sp" refType="w" refFor="ch" refForName="sibTrans"/>
+      <dgm:constr type="primFontSz" for="ch" forName="node" op="equ" val="65"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch" ptType="node">
+      <dgm:layoutNode name="node">
+        <dgm:varLst>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf axis="desOrSelf" ptType="node"/>
+        <dgm:constrLst>
+          <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name4" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="sibTrans">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="図表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,10 +3199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -531,67 +3246,116 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B10:B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37">
       <formula1>"Activity,Widget,DB,Data,クラス,インターフェイス,列挙型"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ace/Document/仕様.xlsx
+++ b/Ace/Document/仕様.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="クラスリスト" sheetId="1" r:id="rId1"/>
     <sheet name="処理リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>クラス</t>
   </si>
@@ -203,6 +204,10 @@
     <rPh sb="3" eb="5">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3201,7 +3206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3358,4 +3363,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ace/Document/仕様.xlsx
+++ b/Ace/Document/仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="8970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="クラスリスト" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>クラス</t>
   </si>
@@ -118,31 +119,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PazzleResultItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PazzleResultBaseAdapter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RankingActivity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15パズルの結果をリストに差し込む用のクラス</t>
-    <rPh sb="6" eb="8">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -208,6 +185,68 @@
   </si>
   <si>
     <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pazzle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SquareLayout</t>
+  </si>
+  <si>
+    <t>15パズルの内部処理をするクラス</t>
+    <rPh sb="6" eb="10">
+      <t>ナイブショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row,colの情報管理をするクラス</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正方形の形にしてくれるレイアウト</t>
+    <rPh sb="0" eb="3">
+      <t>セイホウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultBaseAdapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15パズルの結果をListViewに差し込む用のクラス</t>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GridPosition</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1224,6 +1263,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E11E8025-E0AF-4086-AA7D-EADB8254D70C}" type="pres">
       <dgm:prSet presAssocID="{5B20542F-93A1-4E57-A0EF-24003C751BC7}" presName="node" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="5">
@@ -1251,6 +1297,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EE677E85-5A97-40EA-B622-C40E3E6DF7A0}" type="pres">
       <dgm:prSet presAssocID="{8D8F7729-A962-4348-83E7-84C5BEBFFB29}" presName="sibTrans" presStyleCnt="0"/>
@@ -1263,6 +1316,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{61DA0B33-FDC7-4AB1-90FE-BED592AFEC06}" type="pres">
       <dgm:prSet presAssocID="{4844FAE6-3E1F-47E8-BAFE-7CE59088B316}" presName="sibTrans" presStyleCnt="0"/>
@@ -1275,6 +1335,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{00246355-C96C-495D-A727-56605B469389}" type="pres">
       <dgm:prSet presAssocID="{BCB7764A-2B10-4709-B1BC-E835B6821EA0}" presName="sibTrans" presStyleCnt="0"/>
@@ -3204,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3251,35 +3318,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -3306,7 +3373,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -3317,24 +3384,57 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3369,13 +3469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Ace/Document/仕様.xlsx
+++ b/Ace/Document/仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="クラスリスト" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>クラス</t>
   </si>
@@ -170,10 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBHelper</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -247,6 +242,63 @@
   </si>
   <si>
     <t>GridPosition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー名を保存しているテーブルのレコードをクラスにしたもの</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー名をListViewに差し込む用のクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerBaseAdapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatisticsItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatisticstBaseAdapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズルの統計をListViewに差し込む用のクラス</t>
+    <rPh sb="4" eb="6">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DBAdapter </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズルの統計をだすためクエリをクラスにしたもの</t>
+    <rPh sb="4" eb="6">
+      <t>トウケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3271,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3373,74 +3425,118 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B41">
       <formula1>"Activity,Widget,DB,Data,クラス,インターフェイス,列挙型"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3475,7 +3571,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Ace/Document/仕様.xlsx
+++ b/Ace/Document/仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="クラスリスト" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>クラス</t>
   </si>
@@ -298,6 +298,20 @@
     <t>パズルの統計をだすためクエリをクラスにしたもの</t>
     <rPh sb="4" eb="6">
       <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegisterActivity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー登録画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3323,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3403,140 +3417,151 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B255">
       <formula1>"Activity,Widget,DB,Data,クラス,インターフェイス,列挙型"</formula1>
     </dataValidation>
   </dataValidations>
